--- a/Tables/GROWTH_EST_rob.xlsx
+++ b/Tables/GROWTH_EST_rob.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -44,217 +44,334 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">* p &lt; 0.1, ** p &lt; 0.05, *** p &lt; 0.01</t>
+    <t xml:space="preserve">+ p &lt; 0.1, * p &lt; 0.05, ** p &lt; 0.01, *** p &lt; 0.001</t>
   </si>
   <si>
     <t xml:space="preserve">FD</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0708***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0823***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2042)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5145***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1597)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3970***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1358)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7239***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.5054)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9424***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2789)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7045***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2130)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD-TFE</t>
+    <t xml:space="preserve">0.0722***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.9218***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2354)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3766*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1608)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4294**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1381)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8046***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.4523)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1457***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2623)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8208***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2061)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD-FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.9477***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.3435)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1661)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1772)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8824**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.3124)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1544)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1328)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0012)</t>
   </si>
   <si>
-    <t xml:space="preserve">-3.9504***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2742)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4860***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1617)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1685)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0287***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.3114)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2522*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1483)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1385)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.9836***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.3027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.3397)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8143***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2270)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4117***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2803)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.2181)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4540***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1300)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD Elas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0696NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0973NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1549NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1220NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0534NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0790NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0519NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD-TFE Elas</t>
+    <t xml:space="preserve">-5.3803***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2889)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6597*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2827)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7084***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2108)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1079***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2357)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.2139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4501**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1403)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0712***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0026)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1070**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0345)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1457***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0295)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1208***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0241)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0401***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0344)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1195*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0544)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0885***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0224)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD-FE ES</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0007)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6367***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0549)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1086**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0488)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0278)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9158***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0211)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0166*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0087)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0066)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FE Elas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5007***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0673)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0718)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0326)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9642***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0467***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0122)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0541***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0132)</t>
+    <t xml:space="preserve">-0.7019***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0604)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0883+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0533)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0251)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8666***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0177)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4799***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0795)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0827)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0340)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9033***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0371)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0902*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0305***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4988***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0335)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0688**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0258)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0401**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0124)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8661***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0348)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0673*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0320)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD-FE E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0006)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.5316***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0232)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0196)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0309*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0145)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9034***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0098)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0138)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0104)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4942***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0352)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0351)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0420*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0187)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8794***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0199)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0169)</t>
   </si>
 </sst>
 </file>
@@ -666,6 +783,9 @@
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="10.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="NA" customHeight="1">
@@ -679,16 +799,25 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -699,19 +828,28 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0004</v>
+        <v>-0.0012</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0003</v>
+        <v>0.0006</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -725,16 +863,25 @@
         <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -748,16 +895,25 @@
         <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -771,16 +927,25 @@
         <v>29</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -790,20 +955,29 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0.2969</v>
+      <c r="C6" s="3" t="n">
+        <v>0.1692</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>-0.0826</v>
+        <v>-0.0906</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>-0.0325</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -814,19 +988,28 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -837,19 +1020,28 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0.1665</v>
+        <v>0.1286</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.0103</v>
+        <v>-0.0046</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.0181</v>
+        <v>0.0055</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -860,19 +1052,28 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -883,19 +1084,28 @@
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="NA" customHeight="1">
@@ -906,19 +1116,28 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" ht="NA" customHeight="1">
@@ -928,20 +1147,29 @@
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
+      <c r="C12" s="3" t="n">
+        <v>0.2295</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>-0.0355</v>
+        <v>-0.0044</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.0147</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -952,19 +1180,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -975,19 +1212,28 @@
         <v>24</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>-0.0534</v>
+        <v>-0.022</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-0.0088</v>
+        <v>-0.0223</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
@@ -998,19 +1244,28 @@
         <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1018,50 +1273,68 @@
         <v>9</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>0.412</v>
+        <v>0.392</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>0.562</v>
+        <v>0.588</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.723</v>
+        <v>0.729</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.868</v>
+        <v>0.763</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.946</v>
+        <v>0.924</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.937</v>
+        <v>0.898</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>0.924</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
